--- a/ExcelFiles/Lloji i sherbimit.xlsx
+++ b/ExcelFiles/Lloji i sherbimit.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arbi.topi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arbi.topi\IdeaProjects\TestimTemp\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950BBE3F-FBD2-46A6-BB14-A4796B8630F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB2F3BA-6EAB-40FC-9996-5847F4364DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1920" yWindow="-14655" windowWidth="15225" windowHeight="8970" xr2:uid="{C17C4ED0-4B45-49AC-B61F-F137CC63AE67}"/>
+    <workbookView xWindow="-1485" yWindow="-14220" windowWidth="15225" windowHeight="8970" xr2:uid="{C17C4ED0-4B45-49AC-B61F-F137CC63AE67}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>Procesim ne SQDNE</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>Dokumentacion Shoqërues nga SQDNE</t>
   </si>
   <si>
@@ -78,6 +75,9 @@
   </si>
   <si>
     <t xml:space="preserve">Dokumentacion shoqërues pa monitorim dhe kthim përgjigje nga SQDNE	</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -454,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59960C79-68DE-4625-BD22-818D190F0C82}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -532,7 +532,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -566,7 +566,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -600,7 +600,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -617,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -634,7 +634,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -668,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -685,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -702,7 +702,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -719,7 +719,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -736,7 +736,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -753,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
